--- a/docs/audit-SEO.xlsx
+++ b/docs/audit-SEO.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Healtar\Documents\OpenClassrooms\LaPanthère\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E086FD-6D89-4848-9BB2-6BC73F8B62D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CF6C9-2648-44D8-9E12-B3752E405B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="3345" windowWidth="21585" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="expressions clés" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Catégorie</t>
   </si>
@@ -61,15 +60,9 @@
     <t>SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Le fait qu'il n'y ai pas de titre est problematique car c'est ce qui va apparaitre dans le moteur de recherche comme lien cliquable. Le bot de google réfèrencera obligatoirement mal le site </t>
-  </si>
-  <si>
     <t>Toujours avoir un titre préfixé du nom du site suivi du nom de la page en question (accueil, catalogue, forums etc…)</t>
   </si>
   <si>
-    <t>mettre le titre dans la balise "title"</t>
-  </si>
-  <si>
     <t>balise du logo ne contient qu'une image</t>
   </si>
   <si>
@@ -91,24 +84,12 @@
     <t>Donner le nom de la page au lien cliquable dans la barre de navigation</t>
   </si>
   <si>
-    <t>Renommer "page 2" dans la barre de navigation en "contact"</t>
-  </si>
-  <si>
     <t xml:space="preserve">La langue de la page est en "defaut" </t>
   </si>
   <si>
-    <t xml:space="preserve">Ne pas déterminé une langue pour le site nuit au référencement car le bot google ne saura pas si il s'agit d'un site français ce qui aura pour effet de placer le site derrière ceux qui traitent du même sujet mais son reconnu comme français </t>
-  </si>
-  <si>
     <t>vérifier si ça bloque pas aussi pour les liseuse pour mal voyants</t>
   </si>
   <si>
-    <t>sur toute les pages préciser la langue</t>
-  </si>
-  <si>
-    <t>dans la balise html mettre l'attribut lang en "fr"</t>
-  </si>
-  <si>
     <t>Anticiper les visiteurs qui pourraient avoir des handicapes</t>
   </si>
   <si>
@@ -131,6 +112,114 @@
   </si>
   <si>
     <t>mettre les titres de liste dans des balises h3 dans ce contexte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste entre le fond et le premier plan </t>
+  </si>
+  <si>
+    <t>Les coueleurs n'ont pas un contrast assez élevés entre l'arrière plan et le premier plan ce qui nuit à l'accessibilité, notamment pour les personnes discernant difficilement les  couleurs</t>
+  </si>
+  <si>
+    <t>accessibilités/SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas déterminé une langue pour le site nuit au référencement car le bot google ne saura pas si il s'agit d'un site français ce qui aura pour effet de placer le site derrière ceux qui traitent du même sujet mais son reconnu comme français. Mais surtout si un utilisateur d'un autre pays visite la page et souhaite la traduire grâce à son nvigateur ou un autre outil il ne pourra pas </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images dans un format lourd </t>
+  </si>
+  <si>
+    <t>Les images sont dans un format lourd ce qui nuit au chargement de la page et donc au référencement</t>
+  </si>
+  <si>
+    <t>Convertir les images dans un format moins lourd et réduire la résolution si nécessaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des images représentent des textes </t>
+  </si>
+  <si>
+    <t>Accessibilité/seo</t>
+  </si>
+  <si>
+    <t>Des images sont présentes avec uniquement du texte ce qui nuit à la navigation au clavier, emp^che de surligner ou copié les text, les mots clé ne sont pas pris en compte google et surtout les liseuse de personnes malvoyante ne pouront pas intérpreter le text. En plus de tout ça les images sont plus lourdes à charger ce qui nuit aux performances</t>
+  </si>
+  <si>
+    <t>Supprimer ces images et les remplacés par le text correspondant</t>
+  </si>
+  <si>
+    <t>SEO/accessibilités</t>
+  </si>
+  <si>
+    <t>Le fait qu'il n'y ai pas de titre est problematique car c'est ce qui va apparaitre dans le moteur de recherche comme lien cliquable. Le bot de google réfèrencera obligatoirement mal le site. Mais surtout l'utilisateur ne cliquera pas si il ne sait pas où ça le mène</t>
+  </si>
+  <si>
+    <t>Mettre plus de contraste entre les couleurs</t>
+  </si>
+  <si>
+    <t>Mauvaise sémentique</t>
+  </si>
+  <si>
+    <t>Le respect d'une bonne sémentique permet un meilleure référencement</t>
+  </si>
+  <si>
+    <t>utiliser les bonnes balises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La police trop petite </t>
+  </si>
+  <si>
+    <t>La police trop petite nuit à l'accessibilité et n'est pas agréable pour le lecteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilisé une taille d'environ 16px </t>
+  </si>
+  <si>
+    <t>Rédiger des article ou utiliser les expressions clef de manière pertinente dans la page sans abus</t>
+  </si>
+  <si>
+    <t>cette pratique est mal vu par le bot google qui pourrait vous blacklit</t>
+  </si>
+  <si>
+    <t>L'abus de balises ne servant qu'à répéter des mots clé (balises cachés)</t>
+  </si>
+  <si>
+    <t>Les fichiers JS sont mal appelés dans les balises script (page2)</t>
+  </si>
+  <si>
+    <t>bootstrap ne peut pas utiliser jquery ce qui nuit à l'affichage</t>
+  </si>
+  <si>
+    <t>vérifier que les appels se fassent correctement (via la console)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootstrap et jquery ne sont pas minifié </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela rend le site plus long à charger </t>
+  </si>
+  <si>
+    <t>Utiliser des versions (slim) lorsque c'est possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas d'utilisation des cdn </t>
+  </si>
+  <si>
+    <t>Le site ne sera accessible quand ligne donc l'utilisation de cdn est pertinente car si les visiteurs on déjà visiter mon site ou un autre qui utilise les mêmes dépots le site chargera plus rapidement comme les fichier nécessaire seront en cache</t>
+  </si>
+  <si>
+    <t>utiliser des cdn</t>
+  </si>
+  <si>
+    <t>Il devrait etre appeler en dernier pour que les modification de style dans celui-ci soient prisent en compte en priorité</t>
+  </si>
+  <si>
+    <t>appeler style.css en dernier</t>
+  </si>
+  <si>
+    <t>style.css appelé en premier</t>
   </si>
 </sst>
 </file>
@@ -433,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -493,189 +582,276 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+    <row r="11" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+    <row r="12" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+    <row r="13" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
@@ -1686,16 +1862,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718174F1-5E41-4BFD-AAE0-2864D985F033}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/audit-SEO.xlsx
+++ b/docs/audit-SEO.xlsx
@@ -5,33 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Healtar\Documents\OpenClassrooms\LaPanthère\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Healtar\WebstormProjects\LaPanthère\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CF6C9-2648-44D8-9E12-B3752E405B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD26062-2C95-4522-9229-3B0537D2B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="4455" windowWidth="21585" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -63,15 +58,6 @@
     <t>Toujours avoir un titre préfixé du nom du site suivi du nom de la page en question (accueil, catalogue, forums etc…)</t>
   </si>
   <si>
-    <t>balise du logo ne contient qu'une image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si l'image ne charge pas le nom de l'agence n'apparaitra pas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;= a vérifier </t>
-  </si>
-  <si>
     <t>"Page2" au lieu de "contact" dans la barre de navigation</t>
   </si>
   <si>
@@ -96,9 +82,6 @@
     <t>renseigner un attribut alt dans les balises img contenant une description à ce qui devrai d'ordinaire être vu/lu</t>
   </si>
   <si>
-    <t xml:space="preserve">Le manque d'attribut alt notamment sur des images pose problème car pour les utilisateurs mal voyant une liseuse permet de lire une description de l'image présente et donc nuit à l'expèrience </t>
-  </si>
-  <si>
     <t xml:space="preserve">Manque de attribut alt </t>
   </si>
   <si>
@@ -117,15 +100,9 @@
     <t xml:space="preserve">Le contraste entre le fond et le premier plan </t>
   </si>
   <si>
-    <t>Les coueleurs n'ont pas un contrast assez élevés entre l'arrière plan et le premier plan ce qui nuit à l'accessibilité, notamment pour les personnes discernant difficilement les  couleurs</t>
-  </si>
-  <si>
     <t>accessibilités/SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Ne pas déterminé une langue pour le site nuit au référencement car le bot google ne saura pas si il s'agit d'un site français ce qui aura pour effet de placer le site derrière ceux qui traitent du même sujet mais son reconnu comme français. Mais surtout si un utilisateur d'un autre pays visite la page et souhaite la traduire grâce à son nvigateur ou un autre outil il ne pourra pas </t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -220,13 +197,88 @@
   </si>
   <si>
     <t>style.css appelé en premier</t>
+  </si>
+  <si>
+    <t>blackhat</t>
+  </si>
+  <si>
+    <t>Label formulaire non associés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les labels ne sont pas associés aux input ce qui ne permet pas de cliquer dessus pour avoir le focus sur l'input correspondant </t>
+  </si>
+  <si>
+    <t>renseigner les attributs for</t>
+  </si>
+  <si>
+    <t>Fonctionnalité</t>
+  </si>
+  <si>
+    <t>Les balises input sans attribut name</t>
+  </si>
+  <si>
+    <t>Les input n'ont pas d'attributs name ce qui fait que les données des input ne seront pas récupérées</t>
+  </si>
+  <si>
+    <t>renseinger l'attribut name</t>
+  </si>
+  <si>
+    <t>Attribut action et method manquants</t>
+  </si>
+  <si>
+    <t>L'attribut action n'est pas renseigné ce qui aura pour effet de ne pas envoyer les données du formulaire (ou du moins les données s'enverront sur la page courante) puisqu'aucune page n'est ciblé, et le manque de method ne permet pas d'indiquer de quelle manière seront envoyé les données</t>
+  </si>
+  <si>
+    <t>renseigner les attribut action avec la page ciblé et method pour savoir de quelle manière envoyer les données</t>
+  </si>
+  <si>
+    <t>Type mail mal utilisé</t>
+  </si>
+  <si>
+    <t>L'input de la ligne "comment nous avez-vous connu" est de type mail ce qui forcera l'utilisateur à renseigner une adresse mail valide et uniquement ça, ce qui n'est pas le comportement attendu pour cet input</t>
+  </si>
+  <si>
+    <t>changer type mail en type text</t>
+  </si>
+  <si>
+    <t>Maintenabilité</t>
+  </si>
+  <si>
+    <t>Id pas parlant</t>
+  </si>
+  <si>
+    <t>Pour l'input "Comment nous avez-vous connu" l'id est input_504 ce qui n'est pas parlant pour un dev reprendrai le code ce qui nuit à la maintenabilité</t>
+  </si>
+  <si>
+    <t>Renseigner un id plus cohérent</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le manque d'attribut alt notamment sur des images pose problème car pour les utilisateurs mal voyant un synthétiseur vocal permet de lire une description de l'image présente et donc nuit à l'expèrience </t>
+  </si>
+  <si>
+    <t>Ne pas déterminé une langue pour le site nuit au référencement car le bot google ne saura pas si il s'agit d'un site français ce qui aura pour effet de placer le site derrière ceux qui traitent du même sujet mais son reconnu comme français. Mais surtout si un utilisateur d'un autre pays visite la page et souhaite la traduire grâce à son nvigateur ou un autre outil il ne pourra pas. De plus un synthétiseur vocal ne retranscrira pas correctement l'information</t>
+  </si>
+  <si>
+    <t>Les couleurs n'ont pas un contrast assez élevés entre l'arrière plan et le premier plan ce qui nuit à l'accessibilité, notamment pour les personnes discernant difficilement les  couleurs</t>
+  </si>
+  <si>
+    <t>Le formulaire contient des attributs qui n'existe pas</t>
+  </si>
+  <si>
+    <t>Les attributs success-msg ou success-fail n'existe pas donc l'alert de succès ou fail ne sera pas récupéré</t>
+  </si>
+  <si>
+    <t>Alerter de la réussite de la soumission du formulaire autrement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +307,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -291,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +361,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,151 +645,155 @@
     </row>
     <row r="3" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -737,150 +802,206 @@
         <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1857,9 +1978,8 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/audit-SEO.xlsx
+++ b/docs/audit-SEO.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\WebstormProjects\LaPanthere\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DDAFB-A8A8-427A-84C9-046D846048DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E76CE-F24E-422F-BF70-9BF12446A620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3408" yWindow="4452" windowWidth="21588" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$999</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>Catégorie</t>
   </si>
@@ -78,9 +81,6 @@
     <t>Anticiper les visiteurs qui pourraient avoir des handicapes</t>
   </si>
   <si>
-    <t>renseigner un attribut alt dans les balises img contenant une description à ce qui devrai d'ordinaire être vu/lu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manque de attribut alt </t>
   </si>
   <si>
@@ -102,9 +102,6 @@
     <t>accessibilités/SEO</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les images dans un format lourd </t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t xml:space="preserve">Des images représentent des textes </t>
   </si>
   <si>
-    <t>Accessibilité/seo</t>
-  </si>
-  <si>
-    <t>Des images sont présentes avec uniquement du texte ce qui nuit à la navigation au clavier, emp^che de surligner ou copié les text, les mots clé ne sont pas pris en compte google et surtout les liseuse de personnes malvoyante ne pouront pas intérpreter le text. En plus de tout ça les images sont plus lourdes à charger ce qui nuit aux performances</t>
-  </si>
-  <si>
     <t>Supprimer ces images et les remplacés par le text correspondant</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>style.css appelé en premier</t>
   </si>
   <si>
-    <t>blackhat</t>
-  </si>
-  <si>
     <t>Label formulaire non associés</t>
   </si>
   <si>
@@ -271,13 +259,73 @@
   </si>
   <si>
     <t>Alerter de la réussite de la soumission du formulaire autrement</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de balise meta description</t>
+  </si>
+  <si>
+    <t>Le manque de balise meta description fait qu'il n'y aura pas de description sous le nom du site dans les résultats du moteur de recherche</t>
+  </si>
+  <si>
+    <t>Renseigner une description de la page/site dans la balise meta descritption</t>
+  </si>
+  <si>
+    <t>Renseigner une langue dans la balise html</t>
+  </si>
+  <si>
+    <t>Accessibilité/seo/performance</t>
+  </si>
+  <si>
+    <t>Recommandée</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Form</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/input</t>
+  </si>
+  <si>
+    <t>https://www.apprendre-html-et-css.com/class_et_id.html</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/input</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
+  </si>
+  <si>
+    <t>https://contrib.spip.net/Ordre-d-appel-des-feuilles-de-style</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Glossary/CDN</t>
+  </si>
+  <si>
+    <t>https://hugo.maugey.fr/developpeur-fullstack/minification-site-web</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/referencement-naturel-black-hat-seo/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/Common_questions/Design_for_all_types_of_users</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/balises-semantiques</t>
+  </si>
+  <si>
+    <t>Des images sont présentes avec uniquement du texte ce qui nuit à la navigation au clavier, empêche de surligner ou copié les text, les mots clé ne sont pas pris en compte google et surtout les  synthétiseur vocaux ne pouront pas intérpreter le text. En plus de tout ça les images sont plus lourdes à charger ce qui nuit aux performances</t>
+  </si>
+  <si>
+    <t>https://ahrefs.com/blog/title-tag-seo/</t>
+  </si>
+  <si>
+    <t>https://www.seoquantum.com/billet/balise-meta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +362,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,10 +399,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,8 +420,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -592,7 +663,7 @@
     <col min="3" max="3" width="35.08984375" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" customWidth="1"/>
     <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="11" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,7 +683,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
@@ -644,21 +715,23 @@
     </row>
     <row r="3" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -673,26 +746,28 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>15</v>
@@ -703,34 +778,36 @@
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,52 +815,54 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -792,230 +871,274 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1992,7 +2115,16 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{1D05F4C1-DBF9-4BE7-A66C-F785D65E2567}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{9BD1F14F-8AEE-4618-821D-18D6EE7710F0}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{462260B7-ACD5-43CF-8C76-D8260E227D0B}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{2D4C6C68-1F62-4A26-A2A0-92839F50CC01}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{6C246D81-AF46-4009-BDF1-E36533CCB141}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{07546530-FF8A-437E-8FE8-0E20FB797708}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{55F36C26-07B2-40DA-858C-C659E78C8227}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>